--- a/我的创作/人生.xlsx
+++ b/我的创作/人生.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="13420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="人生资产负债表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>人生五大领域</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>时间</t>
+  </si>
+  <si>
+    <t>一次性支出</t>
+  </si>
+  <si>
+    <t>固定支出</t>
+  </si>
+  <si>
+    <t>总支出</t>
+  </si>
+  <si>
+    <t>收入预估</t>
   </si>
 </sst>
 </file>
@@ -471,6 +483,21 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -487,21 +514,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -837,13 +849,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,12 +880,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,9 +893,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,214 +1223,214 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.6160714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.3928571428571" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.3928571428571" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.3928571428571" customWidth="1"/>
     <col min="4" max="4" width="15.0178571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>10000</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>-4000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>10000</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>-2000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>10000</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>-1000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
         <v>-10000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
         <v>-10000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>10000</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
         <v>-10000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
         <v>-10000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
         <v>-10000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
         <v>-10000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
         <v>-5000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1435,292 +1450,292 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>-240</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>-100</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3"/>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>-5000</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f>-14*10000</f>
         <v>-140000</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1741,14 +1756,280 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="7" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <f>-240</f>
+        <v>-240</v>
+      </c>
+      <c r="D3" s="2">
+        <f>-1200-1000</f>
+        <v>-2200</v>
+      </c>
+      <c r="E3" s="2">
+        <f>(D3*12+C3*4*3)</f>
+        <v>-29280</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>-5000</v>
+      </c>
+      <c r="E14" s="2">
+        <f>D14*12</f>
+        <v>-60000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-14000</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>8200</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
